--- a/bms.Web/uploads/muban/入库表/入库表.xlsx
+++ b/bms.Web/uploads/muban/入库表/入库表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5457453F-DA7A-42C2-8062-DA78B86527FD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,7 +101,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -375,30 +374,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">

--- a/bms.Web/uploads/muban/入库表/入库表.xlsx
+++ b/bms.Web/uploads/muban/入库表/入库表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C202EA-E147-47EB-A1BD-D7B4B0D724A0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>书名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>书号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -36,27 +33,11 @@
     <t>商品数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>码洋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实洋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,50 +355,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/bms.Web/uploads/muban/入库表/入库表.xlsx
+++ b/bms.Web/uploads/muban/入库表/入库表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C202EA-E147-47EB-A1BD-D7B4B0D724A0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DC7C36-A3EB-4EA1-949C-5E2D5EC6ADFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>书名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -32,6 +32,12 @@
   <si>
     <t>商品数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何引导学生自我评估：帮助学生反思并成长为学习者</t>
+  </si>
+  <si>
+    <t>978-7-5153-49</t>
   </si>
 </sst>
 </file>
@@ -366,16 +372,16 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="49.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,10 +392,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3"/>
     </row>
   </sheetData>
